--- a/exec/feedback of written testcases - symlex windows/test_cases/signup/signup_confirm_ password_field.xlsx
+++ b/exec/feedback of written testcases - symlex windows/test_cases/signup/signup_confirm_ password_field.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\exec\feedback of written testcases - symlex windows\test_cases\signup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E81D120-E70C-4404-95B6-3BF839D02487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E816D7A8-0DE1-42B2-B2F6-0139399627F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="136">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -577,6 +577,9 @@
   <si>
     <t>Same value as the password field.</t>
   </si>
+  <si>
+    <t>Input Data</t>
+  </si>
 </sst>
 </file>
 
@@ -777,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -878,6 +881,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29805,8 +29811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56B2D48-290E-47D4-9C57-570112147552}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -29818,7 +29824,9 @@
       <c r="A1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="35" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
